--- a/documentation/Task6/scrum_v02.xlsx
+++ b/documentation/Task6/scrum_v02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yaron\OneDrive\SoED CS2\Task 6\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadin\OneDrive\SoED CS2\Task 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="11_00D15CF8CB76791963F5B1955475E5AAF0F2FE9E" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{8916BF55-CB54-4AFD-A53B-A4FB328FA3D7}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="11_4E29E552DF7DEE361965C1565A9BF00D45272AFB" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{90DFA718-A9C7-401C-868A-1A3F6CB5896C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="753" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="753" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectTeam" sheetId="3" r:id="rId1"/>
@@ -20,14 +20,14 @@
     <sheet name="BurndownChart" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sprint Backlog'!$A$1:$L$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Sprint Backlog'!$A$1:$L$22</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="141">
   <si>
     <t>Name</t>
   </si>
@@ -266,9 +266,6 @@
     <t>Seminar: GUI erstellen (noch ohne Karte)</t>
   </si>
   <si>
-    <t>Erstellen des Seminar-GUI's ohne Filter-Möglichkeit, Erstellfunktion, Detail-Funktion und Karte. (Kurz: Tabelle die die Daten aus dem SeminarManager bezieht, am besten mit der Filter-Funktion ohne Einschränkung.)</t>
-  </si>
-  <si>
     <t>SeminarLayout SeminarView</t>
   </si>
   <si>
@@ -278,9 +275,6 @@
     <t>Seminar: Daten validieren</t>
   </si>
   <si>
-    <t>Beim Speichern eines Seminars müssen die Daten validiert werden. 1. Dies geschieht mit einer Methode auf dem SeminarManager, der eine Exception wirft. 2. Zuerst sollte im Frontend eine Prüfung stattfinden die dem Benutzer die fehlerhaften Felder markiert. (Abhängig von Task 2.2)</t>
-  </si>
-  <si>
     <t>SeminarManager SeminarPresenter</t>
   </si>
   <si>
@@ -297,9 +291,6 @@
   </si>
   <si>
     <t>Seminare: Filter Backend</t>
-  </si>
-  <si>
-    <t>Das GUI (Task 4.2) ermöglicht das Filtern von Seminaren. Die Einstellungen des Benutzers müssen einer statischen Methode im Seminar-Manager übergeben werden können und eine Liste an Seminaren als Antwort zurückgegeben werden.</t>
   </si>
   <si>
     <t>SeminarManager</t>
@@ -375,9 +366,6 @@
     <t>Setup Spring</t>
   </si>
   <si>
-    <t>Spring aufsetzenn, damit im nächsten Sprint</t>
-  </si>
-  <si>
     <t xml:space="preserve">Detailansicht Seminar </t>
   </si>
   <si>
@@ -390,9 +378,6 @@
     <t>Detailansicht: Link klickbar</t>
   </si>
   <si>
-    <t xml:space="preserve">Der Link in der Detail-Ansicht muss ein klickbarer Link sein der einen neuen Tab öffnet. </t>
-  </si>
-  <si>
     <t>SeminarPresenter</t>
   </si>
   <si>
@@ -427,6 +412,45 @@
   </si>
   <si>
     <t>Remaining Ressources</t>
+  </si>
+  <si>
+    <t>Das GUI (Task 4.2) ermöglicht das Filtern von Seminaren. Die Einstellungen des Benutzers müssen einer Methode im Seminar-Manager übergeben werden können und eine Liste an Seminaren als Antwort zurückgegeben werden.</t>
+  </si>
+  <si>
+    <t>Erstellen des Seminar-GUI's ohne Filter-Möglichkeit, Erstellfunktion, Detail-Funktion und Karte. (Kurz: Tabelle welche die Daten aus dem SeminarManager bezieht, am besten mit der Filter-Funktion ohne Einschränkung.)</t>
+  </si>
+  <si>
+    <t>Spring aufsetzen, damit spätestens bei der Anbindung der Datenbank diese Schnittstelle vereinfacht wird.</t>
+  </si>
+  <si>
+    <t>Beim Speichern eines Seminars müssen die Daten validiert werden. 1. Dies geschieht mit einer Methode auf dem SeminarManager, der eine Exception wirft. 2. Zuerst sollte im Frontend eine Prüfung stattfinden die dem Benutzer die fehlerhaften Felder markiert. (falls dies in Vaadin möglich ist; Abhängig von Task 2.2)</t>
+  </si>
+  <si>
+    <t>Der Link in der Detail-Ansicht muss ein klickbarer Link sein der einen neuen Tab öffnet.</t>
+  </si>
+  <si>
+    <t>Bedeutung</t>
+  </si>
+  <si>
+    <t>Der Task ist gemäss dem Entwickler abgeschlossen, das Review wurde gemacht.</t>
+  </si>
+  <si>
+    <t>Der Task ist abgeschlossen und wurde abgenommen.</t>
+  </si>
+  <si>
+    <t>Es kann im Moment nicht mit der Entwicklung des Tasks weitergefahren werden, da auf eine Abhängigkeit gewartet werden muss.</t>
+  </si>
+  <si>
+    <t>Der Task wird im Moment bearbeitet.</t>
+  </si>
+  <si>
+    <t>Der Task ist offen, es wurde noch nicht mit der Entwicklung gestartet.</t>
+  </si>
+  <si>
+    <t>Der Task war im Status "done" oder "closed", musste aber wegen einem Bug nochmals geöffnet werden.</t>
+  </si>
+  <si>
+    <t>Der Task wird nicht umgesetzt.</t>
   </si>
 </sst>
 </file>
@@ -924,10 +948,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1162,7 +1186,7 @@
         <v>38</v>
       </c>
       <c r="E8" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1194,7 +1218,7 @@
         <v>45</v>
       </c>
       <c r="E9" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1226,7 +1250,7 @@
         <v>45</v>
       </c>
       <c r="E10" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1258,7 +1282,7 @@
         <v>45</v>
       </c>
       <c r="E11" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1322,7 +1346,7 @@
         <v>45</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1354,7 +1378,7 @@
         <v>45</v>
       </c>
       <c r="E14" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1532,6 +1556,12 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <f>SUM(E2:E19)</f>
+        <v>183</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -1539,48 +1569,80 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8580B25F-F6F1-429F-BAE1-7B943EB75995}">
-  <dimension ref="A1:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="110.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1589,11 +1651,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1652,559 +1715,646 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="9">
+      <c r="A2" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="2">
         <v>2</v>
       </c>
-      <c r="L2" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="9">
+      <c r="A3" s="2">
         <v>1.2</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="D4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="2">
+        <v>4</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I5" s="2">
         <v>6</v>
       </c>
-      <c r="L3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="9">
-        <v>2.1</v>
-      </c>
-      <c r="B4" s="9">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="87.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="G7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I7" s="2">
+        <v>5</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="2">
         <v>4</v>
       </c>
-      <c r="L4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="9">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="B5" s="9">
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>16.3</v>
+      </c>
+      <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="9" t="s">
+      <c r="C10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="2">
+        <v>2</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="87" x14ac:dyDescent="0.35">
+      <c r="A11" s="2">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>17.3</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G12" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I13" s="2">
+        <v>3</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" s="2">
         <v>6</v>
       </c>
-      <c r="L5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="A6" s="9">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="B6" s="9">
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="58" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="2">
+        <v>4</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>3.2</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="9">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9">
-        <v>4.2</v>
-      </c>
-      <c r="B7" s="9">
-        <v>1</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" s="9" t="s">
+      <c r="H17" s="2"/>
+      <c r="I17" s="2">
+        <v>8</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="9">
-        <v>5</v>
-      </c>
-      <c r="L7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="9">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="B8" s="9">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G8" s="9" t="s">
+      <c r="H18" s="2"/>
+      <c r="I18" s="2">
+        <v>8</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2">
+        <v>2</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>17.2</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="9">
-        <v>3</v>
-      </c>
-      <c r="L8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="9">
-        <v>16.2</v>
-      </c>
-      <c r="B9" s="9">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G9" s="9" t="s">
+      <c r="H20" s="2"/>
+      <c r="I20" s="2">
+        <v>2</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="9">
-        <v>4</v>
-      </c>
-      <c r="L9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="9">
-        <v>16.3</v>
-      </c>
-      <c r="B10" s="9">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="9" t="s">
+      <c r="H21" s="2"/>
+      <c r="I21" s="2">
+        <v>8</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" s="9">
-        <v>2</v>
-      </c>
-      <c r="L10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="9">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="B11" s="9">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="9">
-        <v>2</v>
-      </c>
-      <c r="L11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="9">
-        <v>17.3</v>
-      </c>
-      <c r="B12" s="9">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="9">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="9">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="9">
-        <v>3</v>
-      </c>
-      <c r="L13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="9">
-        <v>1</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="9">
-        <v>6</v>
-      </c>
-      <c r="L14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="58" x14ac:dyDescent="0.35">
-      <c r="A15" s="9">
-        <v>3.1</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I15" s="9">
-        <v>4</v>
-      </c>
-      <c r="L15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="9">
-        <v>3.2</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I16" s="9">
-        <v>1</v>
-      </c>
-      <c r="L16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I17" s="9">
-        <v>4</v>
-      </c>
-      <c r="L17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="9">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I18" s="9">
+      <c r="H22" s="2"/>
+      <c r="I22" s="2">
         <v>8</v>
       </c>
-      <c r="L18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="9">
-        <v>16.399999999999999</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="I19" s="9">
-        <v>2</v>
-      </c>
-      <c r="L19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="9">
-        <v>17.2</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I20" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="9">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I21" s="9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C22" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I22" s="9">
-        <v>8</v>
-      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L20" xr:uid="{0FB9678A-6F42-42C3-83B6-3FF46ED00FD4}">
+  <autoFilter ref="A1:L22" xr:uid="{00000000-0009-0000-0000-000003000000}">
+    <filterColumn colId="1">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
     <sortState ref="A2:L22">
       <sortCondition ref="B1:B20"/>
     </sortState>
@@ -2217,7 +2367,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2233,16 +2383,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
